--- a/data/income_statement/3digits/total/591_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/591_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>591-Motion picture, video and television programme activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>591-Motion picture, video and television programme activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1994488.33999</v>
@@ -962,31 +868,36 @@
         <v>3367347.29238</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3766415.91402</v>
+        <v>3767587.84751</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4394994.79854</v>
+        <v>4395299.597709999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5125328.66224</v>
+        <v>5187266.6156</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5371871.5965</v>
+        <v>5374728.340809999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>6558136.718760001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7312474.54249</v>
+        <v>7332937.82046</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7421379.08526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7608944.83944</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7184961.49</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1921896.33464</v>
@@ -1001,40 +912,45 @@
         <v>3198747.67615</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3580478.417229999</v>
+        <v>3581650.337</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4165519.67091</v>
+        <v>4165814.04062</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4873358.12557</v>
+        <v>4925614.38053</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5029074.87579</v>
+        <v>5031912.698100001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5963245.31187</v>
+        <v>5963245.311869999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6635658.917789999</v>
+        <v>6656111.46272</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6478308.907430001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6637506.327610001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6220241.025</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>40058.18470000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>34458.09821</v>
+        <v>34458.09821000001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>76492.17460999999</v>
+        <v>76492.17461</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>98532.89283</v>
@@ -1043,34 +959,39 @@
         <v>111373.58701</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>162192.09185</v>
+        <v>162201.15547</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>180246.38503</v>
+        <v>189925.94387</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>258722.85083</v>
+        <v>258724.94488</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>494096.00166</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>528945.86029</v>
+        <v>528949.8622900001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>776578.84864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>804481.57974</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>828447.23</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>32533.82065</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>40133.91772999999</v>
+        <v>40133.91773</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>39477.42455</v>
@@ -1079,31 +1000,36 @@
         <v>70066.7234</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>74563.90978</v>
+        <v>74563.9235</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>67283.03578000001</v>
+        <v>67284.40162</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>71724.15164</v>
+        <v>71726.29120000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>84073.86988</v>
+        <v>84090.69782999999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>100795.40523</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>147869.76441</v>
+        <v>147876.49545</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>166491.32919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>166956.93209</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>136273.235</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>31625.01249</v>
@@ -1118,31 +1044,36 @@
         <v>37740.65932999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>38189.01407</v>
+        <v>38191.00257</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>47514.32928</v>
+        <v>47514.40878</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>38780.73339</v>
+        <v>39262.6891</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>65724.51148</v>
+        <v>65737.05918</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>67518.97713000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>96169.39174000001</v>
+        <v>96177.41874000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>87669.59447999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>87762.933</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>111256.67</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>30166.35757</v>
@@ -1157,31 +1088,36 @@
         <v>36416.60977</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>35663.3624</v>
+        <v>35665.3509</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>40204.84217</v>
+        <v>40204.92167</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>36483.41851</v>
+        <v>36965.37422</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>59635.75278999999</v>
+        <v>59648.30048999999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>63167.53905</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>90557.83284999999</v>
+        <v>90562.85984999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>82128.27620000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>82221.61472</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>105286.886</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1171.39144</v>
@@ -1202,7 +1138,7 @@
         <v>4249.08976</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>788.3930799999999</v>
+        <v>788.3930800000001</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>4553.50014</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1477.82908</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>4256.486</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>287.26348</v>
@@ -1250,16 +1191,21 @@
         <v>2308.73914</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3039.84961</v>
+        <v>3042.84961</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>4063.4892</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1713.298</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1962863.3275</v>
@@ -1274,31 +1220,36 @@
         <v>3329606.63305</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3728226.89995</v>
+        <v>3729396.84494</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4347480.469260001</v>
+        <v>4347785.18893</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5086547.928850001</v>
+        <v>5148003.9265</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5306147.085019999</v>
+        <v>5308991.28163</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6490617.741629999</v>
+        <v>6490617.741630001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7216305.15075</v>
+        <v>7236760.40172</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7333709.49078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7521181.906439999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7073704.82</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1573609.47811</v>
@@ -1310,52 +1261,57 @@
         <v>2247713.42719</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2545572.2516</v>
+        <v>2545572.251600001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2879736.05529</v>
+        <v>2880846.61322</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3307896.97509</v>
+        <v>3308101.67464</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3882344.59311</v>
+        <v>3923493.990439999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4153158.398430001</v>
+        <v>4154807.20612</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>5191303.43</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5545065.24736</v>
+        <v>5562591.3075</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5706784.18403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5857640.836719999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5499304.754</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>35327.16169000001</v>
+        <v>35327.16169</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>44504.10402000001</v>
+        <v>44504.10402</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>49222.35218000001</v>
+        <v>49222.35218</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>66178.54850999999</v>
+        <v>66178.54851000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>58437.22556</v>
+        <v>58437.22555999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>48076.35823999999</v>
+        <v>48076.35824</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>80573.73414</v>
@@ -1367,22 +1323,27 @@
         <v>106188.04054</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>149447.32418</v>
+        <v>149666.86687</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>91836.12093999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>96814.007</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>95878.89077000001</v>
+        <v>95878.89077</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>95865.00438000001</v>
+        <v>95865.00438</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>113212.43934</v>
@@ -1391,31 +1352,36 @@
         <v>112012.69312</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>183181.61618</v>
+        <v>183377.68654</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>250810.86911</v>
+        <v>250817.32989</v>
       </c>
       <c r="I16" s="48" t="n">
         <v>320912.83424</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>320636.6904799999</v>
+        <v>320782.95861</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>511270.7703</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>419826.43774</v>
+        <v>430138.7728200001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>372028.18637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>391691.56042</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>466876.489</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1426090.83884</v>
@@ -1430,31 +1396,36 @@
         <v>2359604.24651</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2630862.87107</v>
+        <v>2631680.93142</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2999299.79046</v>
+        <v>2999498.02923</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3475644.94777</v>
+        <v>3516794.3451</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3759804.5876</v>
+        <v>3761307.12716</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4558240.442079999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4760319.90124</v>
+        <v>4767314.08361</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5238087.58496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5369184.321909999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4916644.427</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>16312.58681</v>
@@ -1466,10 +1437,10 @@
         <v>5603.94255</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>7776.763459999999</v>
+        <v>7776.76346</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>7254.342479999999</v>
+        <v>7350.769700000001</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>9709.957280000001</v>
@@ -1487,13 +1458,18 @@
         <v>215471.5842</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4832.29176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4928.83345</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>18969.831</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>389253.84939</v>
@@ -1502,37 +1478,42 @@
         <v>494061.24948</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>623893.2053200001</v>
+        <v>623893.20532</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>784034.3814500001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>848490.8446599999</v>
+        <v>848550.2317199999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1039583.49417</v>
+        <v>1039683.51429</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1204203.33574</v>
+        <v>1224509.93606</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1152988.68659</v>
+        <v>1154184.07551</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1299314.31163</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1671239.90339</v>
+        <v>1674169.09422</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1626925.30675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1663541.06972</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1574400.066</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>302090.64337</v>
@@ -1547,31 +1528,36 @@
         <v>474181.53001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>550253.6213400001</v>
+        <v>550296.3215600001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>633638.2887200001</v>
+        <v>634076.95791</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>699856.34661</v>
+        <v>718003.64622</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>827607.07855</v>
+        <v>828457.19553</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>876390.30149</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1091869.03771</v>
+        <v>1094602.83084</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1202105.56189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1215619.5661</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1131011.735</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1366.23833</v>
@@ -1595,7 +1581,7 @@
         <v>10438.30045</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>33659.64290000001</v>
+        <v>33659.6429</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>1180.62952</v>
@@ -1604,13 +1590,18 @@
         <v>22166.69546</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>77230.25210000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>77230.2521</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>81536.273</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>73424.54488</v>
@@ -1619,43 +1610,48 @@
         <v>85031.12594</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>89181.42421</v>
+        <v>89181.42421000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>89939.72902000001</v>
+        <v>89939.72902</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>112247.79378</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>122842.86133</v>
+        <v>122881.33376</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>103474.13077</v>
+        <v>103490.06516</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>129873.71886</v>
+        <v>130016.96929</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>164105.03277</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>217959.53692</v>
+        <v>218336.60382</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>243686.11612</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>248533.12908</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>162138.006</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>227299.86016</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>283652.0880700001</v>
+        <v>283652.08807</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>367420.37147</v>
@@ -1664,34 +1660,39 @@
         <v>382787.55674</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>435937.79952</v>
+        <v>435980.4997399999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>507606.65856</v>
+        <v>508006.85532</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>585943.91539</v>
+        <v>604075.28061</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>664073.71679</v>
+        <v>664780.58334</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>711104.6392</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>851742.8053299999</v>
+        <v>854099.5315599999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>881189.1936700001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>889856.18492</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>887337.456</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>87163.20602000001</v>
+        <v>87163.20602</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>123555.19112</v>
@@ -1700,40 +1701,45 @@
         <v>166875.22084</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>309852.8514399999</v>
+        <v>309852.85144</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>298237.22332</v>
+        <v>298253.91016</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>405945.20545</v>
+        <v>405606.55638</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>504346.98913</v>
+        <v>506506.28984</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>325381.60804</v>
+        <v>325726.87998</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>422924.01014</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>579370.86568</v>
+        <v>579566.26338</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>424819.74486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>447921.50362</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>443388.331</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>88504.36397999999</v>
+        <v>88504.36398000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>76472.62832999999</v>
+        <v>76472.62833000001</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>118283.00419</v>
@@ -1745,28 +1751,33 @@
         <v>155838.50936</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>192048.99545</v>
+        <v>192051.56583</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>339377.00493</v>
+        <v>346854.04834</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>354730.94177</v>
+        <v>354866.43274</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>329451.4686500001</v>
+        <v>329451.46865</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>716388.0220899999</v>
+        <v>716407.1921</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>421936.33734</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>423677.6318099999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>656140.593</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>522.6466499999999</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>9149.910800000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>12181.308</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0.22578</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>7384.26831</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>37251.94</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>12875.01803</v>
@@ -1862,28 +1883,33 @@
         <v>24326.84221</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>34948.81858</v>
+        <v>34951.2644</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>34771.35905000001</v>
+        <v>34921.60649000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>53412.3139</v>
+        <v>53420.34204</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>61496.58494</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>102427.20961</v>
+        <v>102428.09723</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>94336.82742</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>94854.52172999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>59457.516</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2298.87724</v>
@@ -1916,13 +1942,18 @@
         <v>5891.15935</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>22199.21377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>22205.23193</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>18909.386</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2038.33063</v>
@@ -1937,13 +1968,13 @@
         <v>2872.85993</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3840.338000000001</v>
+        <v>3840.338</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>5864.09183</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>67946.36377</v>
+        <v>68060.71094</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>473.05852</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>6222.36028</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3112.917</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1524.79956</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>961.7182799999999</v>
+        <v>961.71828</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>1280.20866</v>
@@ -1985,7 +2021,7 @@
         <v>10030.4528</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>11216.07204</v>
+        <v>11216.37009</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>2431.93225</v>
@@ -1994,52 +2030,62 @@
         <v>2570.84517</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4549.02961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4573.57986</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>7701.48</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>59678.12301</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>46028.42568999999</v>
+        <v>46028.42569</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>62447.68183000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>50938.39222</v>
+        <v>50938.39222000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>84787.13594000001</v>
+        <v>84787.13593999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>104432.4957</v>
+        <v>104432.62026</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>177476.57666</v>
+        <v>184670.61963</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>228203.20128</v>
+        <v>228301.56123</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>221239.43735</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>562237.06979</v>
+        <v>562244.9562199999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>252316.98077</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>253105.9296</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>495979.044</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1086.54564</v>
@@ -2057,7 +2103,7 @@
         <v>88.45217</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>280.6919800000001</v>
+        <v>280.69198</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>96.16103</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>75.71768</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8404.079760000001</v>
+        <v>8404.079760000002</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>11005.33773</v>
@@ -2138,31 +2194,36 @@
         <v>27555.75492</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>33290.35706</v>
+        <v>33308.76289</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>34485.19102000001</v>
+        <v>34513.99584999999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>29039.74726</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>29860.50309</v>
+        <v>29870.89905</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>25777.74638</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>26181.8293</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>21547.002</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>70616.03567</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>56130.67509999999</v>
+        <v>56130.6751</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>91139.86745000001</v>
@@ -2174,31 +2235,36 @@
         <v>118824.41156</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>140587.03697</v>
+        <v>140587.05519</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>341661.4444500001</v>
+        <v>345252.29375</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>207871.40192</v>
+        <v>208093.7249</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>263758.47538</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>648179.95653</v>
+        <v>648211.46379</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>323542.97291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>324236.24213</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>726716.51</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6218.857680000001</v>
+        <v>6218.85768</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>2245.88134</v>
@@ -2219,7 +2285,7 @@
         <v>17053.4062</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8156.899309999999</v>
+        <v>8156.899310000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>18981.33792</v>
@@ -2228,16 +2294,21 @@
         <v>24840.66268</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>41324.5659</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>41324.57265</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>33295.419</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4519.053279999999</v>
+        <v>4519.05328</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>4254.018150000001</v>
@@ -2264,22 +2335,27 @@
         <v>11211.1401</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9597.125260000003</v>
+        <v>9597.125259999999</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>7381.16149</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>159746.754</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>315.37688</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>93.80776000000002</v>
+        <v>93.80776</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>239.21517</v>
@@ -2291,13 +2367,13 @@
         <v>1372.46612</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>50.07309</v>
+        <v>50.07308999999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>571.29986</v>
+        <v>571.2998600000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6879.644079999999</v>
+        <v>6879.64408</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>93.54911</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>43.04481000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>134.122</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>53656.85855</v>
@@ -2330,28 +2411,33 @@
         <v>101779.01449</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>109166.61506</v>
+        <v>109166.63328</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>195720.49028</v>
+        <v>199278.01693</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>179497.41509</v>
+        <v>179719.73807</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>229315.3467</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>609494.21048</v>
+        <v>609523.8767200001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>268283.51856</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>268802.5028</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>525194.552</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>20.40941</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>97.80280999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>16.64634</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1.634</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5868.833529999999</v>
+        <v>5868.83353</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5202.68432</v>
+        <v>5202.684319999999</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>4478.93957</v>
@@ -2450,7 +2546,7 @@
         <v>3315.23466</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>51007.66886999999</v>
+        <v>51040.99152</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>2496.01509</v>
@@ -2459,16 +2555,21 @@
         <v>4155.58779</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4134.1385</v>
+        <v>4135.97952</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6412.87934</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6587.157569999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8344.029</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>58137.21531</v>
@@ -2483,31 +2584,36 @@
         <v>112241.56419</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>113403.93225</v>
+        <v>113408.85793</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>82109.89929999999</v>
+        <v>82109.89930000002</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>95732.93567000001</v>
+        <v>95737.01014</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>125388.5214</v>
+        <v>125624.73555</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>134426.95297</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>228808.63046</v>
+        <v>228809.74741</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>248991.47196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>249460.01431</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>201103.902</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>46280.62283</v>
@@ -2516,37 +2622,42 @@
         <v>43492.86829999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>53615.10004999999</v>
+        <v>53615.10005000002</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>94802.50243000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>95701.97151999998</v>
+        <v>95706.89720000001</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>55568.14526999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>68993.23479999999</v>
+        <v>68997.30927</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>91963.53348</v>
+        <v>92199.74763</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>115511.38522</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>197805.63228</v>
+        <v>197806.74923</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>218598.55864</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>219067.10099</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>166944.673</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>11856.59248</v>
@@ -2555,7 +2666,7 @@
         <v>11812.04925</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>9898.389360000001</v>
+        <v>9898.389359999999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>17439.06176</v>
@@ -2573,7 +2684,7 @@
         <v>33424.98792</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>18915.56774999999</v>
+        <v>18915.56775</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>31002.99818</v>
@@ -2581,17 +2692,22 @@
       <c r="M46" s="48" t="n">
         <v>30392.91332</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>34159.229</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>46914.31902</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>88592.22680000002</v>
+        <v>88592.2268</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>130504.86817</v>
@@ -2600,31 +2716,36 @@
         <v>291979.42973</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>221847.38887</v>
+        <v>221859.15003</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>375297.26463</v>
+        <v>374961.16772</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>406329.61394</v>
+        <v>412371.03429</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>346852.62649</v>
+        <v>346874.85227</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>354190.05044</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>418770.30078</v>
+        <v>418952.24428</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>274221.6373300001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>297902.87899</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>171708.512</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>21446.27539</v>
@@ -2642,28 +2763,33 @@
         <v>32377.21662</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>35687.56669000001</v>
+        <v>35982.28523</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>61775.46271</v>
+        <v>62057.17126</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>28812.68167</v>
+        <v>28845.90871</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>68829.87484</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>53368.21193</v>
+        <v>53378.31703999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>49940.91699</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>51073.30024</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>123052.12</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>11462.45547</v>
@@ -2675,10 +2801,10 @@
         <v>335.81696</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>23483.84007</v>
+        <v>23483.84297</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>571.9057299999999</v>
+        <v>571.9057300000001</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>152.19846</v>
@@ -2696,52 +2822,62 @@
         <v>2710.90053</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3834.07551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3910.308559999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>499.858</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9983.819920000002</v>
+        <v>9983.81992</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>33243.45604999999</v>
+        <v>33243.45605</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>20053.08776</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>25364.18291</v>
+        <v>25364.18001</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>31805.31089</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>35535.36823</v>
+        <v>35830.08677</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>60973.19762000001</v>
+        <v>61254.90617</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>28059.27102</v>
+        <v>28092.49806</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>67574.46821000001</v>
+        <v>67574.46820999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>50657.3114</v>
+        <v>50667.41651</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>46106.84148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>47162.99168</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>122552.262</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>19980.07237</v>
@@ -2750,37 +2886,42 @@
         <v>25010.73179</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>294511.28222</v>
+        <v>294511.2822200001</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>54499.82066</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>71513.03178</v>
+        <v>71513.03208</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>79614.34268</v>
+        <v>79615.07462999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>65355.27221</v>
+        <v>65672.35558</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>159932.85448</v>
+        <v>160049.26423</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>66914.78754</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>161665.81031</v>
+        <v>161771.1075</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>99795.27821</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>99935.86751000003</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>98715.673</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>54.05842</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>716.6202099999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1349.367</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1635.66404</v>
@@ -2840,10 +2986,10 @@
         <v>1327.32323</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1629.1121</v>
+        <v>1629.61424</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1699.10145</v>
+        <v>1924.79406</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2341.61863</v>
@@ -2852,13 +2998,18 @@
         <v>5000.10166</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5425.579269999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5425.757269999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3732.69</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>18290.34991</v>
@@ -2873,31 +3024,36 @@
         <v>52648.51609999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>70298.73407999999</v>
+        <v>70298.73437999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>78281.04945000001</v>
+        <v>78281.78139999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>63263.31309</v>
+        <v>63579.89432000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>158065.2266</v>
+        <v>157955.94374</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>64176.08945</v>
+        <v>64176.08944999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>156382.36212</v>
+        <v>156487.65931</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>93653.07873000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>93793.49003</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>93633.61599999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>48380.52204</v>
@@ -2912,31 +3068,36 @@
         <v>286327.63205</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>182711.57371</v>
+        <v>182723.33457</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>331370.4886400001</v>
+        <v>331328.37832</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>402749.80444</v>
+        <v>408755.84997</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>215732.45368</v>
+        <v>215671.49675</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>356105.13774</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>310472.7024</v>
+        <v>310559.4538200001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>224367.27611</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>249040.31172</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>196044.959</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>23921.95069</v>
@@ -2948,34 +3109,39 @@
         <v>44283.19237</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>64652.88155999999</v>
+        <v>64652.88156</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>56119.19748999999</v>
+        <v>56121.54966</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>83232.07712</v>
+        <v>83237.21216</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>93530.35238999999</v>
+        <v>95511.30944</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>83714.65289</v>
+        <v>83723.29393000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>97997.84006</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>132342.88284</v>
+        <v>132583.80783</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>103483.32906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>107775.27185</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>109405.27</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>24458.57135</v>
@@ -2990,28 +3156,31 @@
         <v>221674.75049</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>126592.37622</v>
+        <v>126601.78491</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>248138.41152</v>
+        <v>248091.16616</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>309219.45205</v>
+        <v>313244.54053</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>132017.80079</v>
+        <v>131948.20282</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>258107.29768</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>178129.81956</v>
+        <v>177975.64599</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>120883.94705</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>141265.03987</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>86639.689</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1143</v>
@@ -3044,28 +3216,31 @@
         <v>1397</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1749</v>
+        <v>1755</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1961</v>
+        <v>1976</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2121</v>
+        <v>2126</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2263</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2296</v>
+        <v>2375</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2545</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>